--- a/Lemon.LearnVSTO/ExcelWorkbook2/ExcelWorkbook2/ExcelWorkbook2.xlsx
+++ b/Lemon.LearnVSTO/ExcelWorkbook2/ExcelWorkbook2/ExcelWorkbook2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-3345" yWindow="1965" windowWidth="23160" windowHeight="8955"/>
+    <workbookView xWindow="-2310" yWindow="390" windowWidth="15480" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,20 @@
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,6 +108,23 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="146EB33041F44A14BE419B651B838356CE7641"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="1984"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="582"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -138,6 +169,64 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="list1" displayName="list1" ref="A3:C5" totalsRowShown="0">
+  <autoFilter ref="A3:C5"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="列1"/>
+    <tableColumn id="2" name="列2"/>
+    <tableColumn id="3" name="列3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,7 +519,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -471,16 +560,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A3:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId4" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Lemon.LearnVSTO/ExcelWorkbook2/ExcelWorkbook2/ExcelWorkbook2.xlsx
+++ b/Lemon.LearnVSTO/ExcelWorkbook2/ExcelWorkbook2/ExcelWorkbook2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2310" yWindow="390" windowWidth="15480" windowHeight="7140" activeTab="1"/>
+    <workbookView xWindow="-2310" yWindow="450" windowWidth="15480" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="formInput">Sheet1!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>列1</t>
   </si>
@@ -28,6 +28,22 @@
   </si>
   <si>
     <t>列3</t>
+  </si>
+  <si>
+    <t>0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,8 +234,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="list1" displayName="list1" ref="A3:C5" totalsRowShown="0">
-  <autoFilter ref="A3:C5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="list1" displayName="list1" ref="A3:C6" totalsRowShown="0">
+  <autoFilter ref="A3:C6"/>
   <tableColumns count="3">
     <tableColumn id="1" name="列1"/>
     <tableColumn id="2" name="列2"/>
@@ -562,10 +578,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:C3"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,6 +595,27 @@
       </c>
       <c r="C3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
